--- a/biology/Médecine/Faculté_de_médecine_de_l'université_de_Belgrade/Faculté_de_médecine_de_l'université_de_Belgrade.xlsx
+++ b/biology/Médecine/Faculté_de_médecine_de_l'université_de_Belgrade/Faculté_de_médecine_de_l'université_de_Belgrade.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_de_l%27universit%C3%A9_de_Belgrade</t>
+          <t>Faculté_de_médecine_de_l'université_de_Belgrade</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Faculté de médecine de l'université de Belgrade (en serbe cyrillique : Медицински факултет Универзитета у Београду ; en serbe latin : Medicinski fakultet Univerziteta u Beogradu) est l'une des 31 facultés de l'université[1] de Belgrade, la capitale de la Serbie. Elle a été fondée en 1920[2]. En 2013, son doyen est le professeur Vladimir Bumbaširević[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Faculté de médecine de l'université de Belgrade (en serbe cyrillique : Медицински факултет Универзитета у Београду ; en serbe latin : Medicinski fakultet Univerziteta u Beogradu) est l'une des 31 facultés de l'université de Belgrade, la capitale de la Serbie. Elle a été fondée en 1920. En 2013, son doyen est le professeur Vladimir Bumbaširević.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_de_l%27universit%C3%A9_de_Belgrade</t>
+          <t>Faculté_de_médecine_de_l'université_de_Belgrade</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_de_l%27universit%C3%A9_de_Belgrade</t>
+          <t>Faculté_de_médecine_de_l'université_de_Belgrade</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,9 +551,11 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La faculté est divisée en 82 départements, dont 32 de médecine générale[4] et 50 de médecine spécialisée[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La faculté est divisée en 82 départements, dont 32 de médecine générale et 50 de médecine spécialisée.
 Médecine générale
 Département d'anatomie ;
 Département de biophysique médicale ;
@@ -575,7 +591,7 @@
 Département de génétique humaine.
 Médecine spécialisée
 Instituts
-La Faculté de médecine dispose de 16 instituts[6] :
+La Faculté de médecine dispose de 16 instituts :
 l'Institut d'anatomie Niko Miljanić ;
 l'Institut de biophysique médicale ;
 l'Institut d'épidémiologie ;
@@ -601,7 +617,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_de_l%27universit%C3%A9_de_Belgrade</t>
+          <t>Faculté_de_médecine_de_l'université_de_Belgrade</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -619,7 +635,9 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Parmi les anciens étudiants célèbres de la faculté, on peut citer : Svetlana Broz, Bujar Bukoshi, Živojin Bumbaširević, Bogdan Đuričić, Oliver Dulić, Vladimir S. Kostić, Nebojša Krstić, Ljubisav Rakić, Tomica Milosavljević, Miomir Mugoša, Okwesilieze Nwodo, Slobodan Obradov, Miodrag Pavlović, Milan N. Popović, Pasko Rakic, Nevenka Tadić, Miodrag Radulovacki et Slobodan Uzelac.
 </t>
